--- a/项目管理/VFlow项目执行计划-v1.0.xlsx
+++ b/项目管理/VFlow项目执行计划-v1.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="整体规划" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="56">
   <si>
     <t>内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -110,13 +110,149 @@
   </si>
   <si>
     <t>待测试</t>
+  </si>
+  <si>
+    <t>内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划完成日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>责任人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平台接入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发模式接入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>js-sdk权限获取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接收消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动响应用户消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>token服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>js socket服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客服消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群发消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取用户基本信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取用户列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取用户地理位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生成带参数的二维码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>素材管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增临时素材</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取临时素材</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增永久素材</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取永久素材</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除永久素材</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改永久图文素材</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取素材总数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取素材列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Louie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,6 +283,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -162,7 +306,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -170,15 +314,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -475,8 +643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -531,7 +699,7 @@
         <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -545,7 +713,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -559,7 +727,7 @@
         <v>5</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -573,7 +741,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -587,7 +755,7 @@
         <v>5</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -601,7 +769,7 @@
         <v>5</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -667,16 +835,371 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="13.08203125" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" customWidth="1"/>
+    <col min="3" max="3" width="10.9140625" customWidth="1"/>
+    <col min="6" max="6" width="26.9140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="11">
+        <v>43109</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="7"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="11">
+        <v>43109</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="7"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="12">
+        <v>43109</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="9"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="8"/>
+      <c r="B5" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="12">
+        <v>43109</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="9"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="12">
+        <v>43110</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="9"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="12">
+        <v>43110</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="9"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="8"/>
+      <c r="B8" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="12">
+        <v>43111</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="8"/>
+      <c r="B9" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="12">
+        <v>43112</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="9"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="12">
+        <v>43110</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="9"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="8"/>
+      <c r="B11" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="12">
+        <v>43110</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="9"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="8"/>
+      <c r="B12" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="12">
+        <v>43110</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="9"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="12">
+        <v>43111</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="9"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="8"/>
+      <c r="B15" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="8"/>
+      <c r="B16" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="8"/>
+      <c r="B17" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="8"/>
+      <c r="B18" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="8"/>
+      <c r="B19" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="8"/>
+      <c r="B20" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="8"/>
+      <c r="B21" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A14:A21"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>基础数据!$B$3:$B$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>E2:E25</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 

--- a/项目管理/VFlow项目执行计划-v1.0.xlsx
+++ b/项目管理/VFlow项目执行计划-v1.0.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="72">
   <si>
     <t>内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -245,6 +245,68 @@
   </si>
   <si>
     <t>Louie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂停</t>
+  </si>
+  <si>
+    <t>暂停</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合并至消息服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+  </si>
+  <si>
+    <t>整体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自定义菜单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交接口功能清单初版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>github中新建项目文档目录，提交至该目录下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自定义菜单创建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自定义菜单查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成点击、跳转url、扫码推事件、跳转图文消息四类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自定义菜单删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个性化菜单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取自定义菜单配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交接口功能清单再版</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -333,20 +395,47 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -835,18 +924,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="A2" sqref="A2:F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.08203125" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" customWidth="1"/>
-    <col min="3" max="3" width="10.9140625" customWidth="1"/>
-    <col min="6" max="6" width="26.9140625" customWidth="1"/>
+    <col min="1" max="1" width="13.08203125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="10.9140625" style="5" customWidth="1"/>
+    <col min="4" max="5" width="8.6640625" style="5"/>
+    <col min="6" max="6" width="36" style="5" customWidth="1"/>
+    <col min="7" max="16384" width="8.6640625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -870,320 +961,550 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="8">
         <v>43109</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="7"/>
+      <c r="E2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6" t="s">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="8">
         <v>43109</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="7"/>
+      <c r="E3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="9"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="11" t="s">
         <v>29</v>
       </c>
       <c r="C4" s="12">
         <v>43109</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="9"/>
+      <c r="E4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="11"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9" t="s">
+      <c r="A5" s="10"/>
+      <c r="B5" s="11" t="s">
         <v>30</v>
       </c>
       <c r="C5" s="12">
         <v>43109</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="E5" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="9"/>
+      <c r="E5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="11"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="11" t="s">
         <v>32</v>
       </c>
       <c r="C6" s="12">
         <v>43110</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="9"/>
+      <c r="E6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="11"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9" t="s">
+      <c r="A7" s="10"/>
+      <c r="B7" s="11" t="s">
         <v>33</v>
       </c>
       <c r="C7" s="12">
         <v>43110</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="9"/>
+      <c r="E7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="11"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9" t="s">
+      <c r="A8" s="10"/>
+      <c r="B8" s="11" t="s">
         <v>37</v>
       </c>
       <c r="C8" s="12">
         <v>43111</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="E8" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="9"/>
+      <c r="E8" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="11"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9" t="s">
+      <c r="A9" s="10"/>
+      <c r="B9" s="11" t="s">
         <v>38</v>
       </c>
       <c r="C9" s="12">
         <v>43112</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="9"/>
+      <c r="F9" s="11"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="11" t="s">
         <v>40</v>
       </c>
       <c r="C10" s="12">
         <v>43110</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="9"/>
+      <c r="E10" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="11"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="8"/>
-      <c r="B11" s="9" t="s">
+      <c r="A11" s="10"/>
+      <c r="B11" s="11" t="s">
         <v>41</v>
       </c>
       <c r="C11" s="12">
         <v>43110</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="E11" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="9"/>
+      <c r="E11" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="11"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="8"/>
-      <c r="B12" s="9" t="s">
+      <c r="A12" s="10"/>
+      <c r="B12" s="11" t="s">
         <v>42</v>
       </c>
       <c r="C12" s="12">
         <v>43110</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="9"/>
+      <c r="E12" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="11" t="s">
         <v>44</v>
       </c>
       <c r="C13" s="12">
         <v>43111</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="E13" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" s="9"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
+      <c r="E13" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" s="11"/>
+    </row>
+    <row r="14" spans="1:6" ht="26" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="12">
+        <v>43115</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="10"/>
+      <c r="B15" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="12">
+        <v>43119</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+    </row>
+    <row r="16" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="14">
+        <v>43116</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="10"/>
+      <c r="B17" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="14">
+        <v>43117</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="10"/>
+      <c r="B18" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="14">
+        <v>43117</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="10"/>
+      <c r="B19" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" s="14">
+        <v>43117</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="10"/>
+      <c r="B20" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="14">
+        <v>43117</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B21" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="8"/>
-      <c r="B15" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="8"/>
-      <c r="B16" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="8"/>
-      <c r="B17" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="8"/>
-      <c r="B18" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="8"/>
-      <c r="B19" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="8"/>
-      <c r="B20" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="8"/>
-      <c r="B21" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
+      <c r="C21" s="12">
+        <v>43118</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
+      <c r="B22" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="12">
+        <v>43118</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
+      <c r="B23" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="12">
+        <v>43118</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="10"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
+      <c r="B24" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="12">
+        <v>43118</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="10"/>
+      <c r="B25" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="12">
+        <v>43118</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="10"/>
+      <c r="B26" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="12">
+        <v>43119</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="10"/>
+      <c r="B27" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="12">
+        <v>43119</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="10"/>
+      <c r="B28" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="12">
+        <v>43119</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="13"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="13"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="13"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="13"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="13"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="13"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="13"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="13"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="13"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="13"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="13"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="13"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="13"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="13"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
+    <mergeCell ref="A16:A20"/>
+    <mergeCell ref="A14:A15"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A6:A9"/>
     <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A14:A21"/>
+    <mergeCell ref="A21:A28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1193,9 +1514,9 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>基础数据!$B$3:$B$6</xm:f>
+            <xm:f>基础数据!$B$3:$B$7</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E25</xm:sqref>
+          <xm:sqref>E2:E28</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1233,10 +1554,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:B6"/>
+  <dimension ref="B3:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1261,6 +1582,11 @@
         <v>20</v>
       </c>
     </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>57</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/项目管理/VFlow项目执行计划-v1.0.xlsx
+++ b/项目管理/VFlow项目执行计划-v1.0.xlsx
@@ -1,18 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="整体规划" sheetId="1" r:id="rId1"/>
     <sheet name="微信支付" sheetId="2" r:id="rId2"/>
     <sheet name="服务号" sheetId="3" r:id="rId3"/>
-    <sheet name="流程服务" sheetId="4" r:id="rId4"/>
-    <sheet name="图表服务" sheetId="5" r:id="rId5"/>
-    <sheet name="基础数据" sheetId="6" r:id="rId6"/>
+    <sheet name="控制台" sheetId="7" r:id="rId4"/>
+    <sheet name="流程服务" sheetId="4" r:id="rId5"/>
+    <sheet name="图表服务" sheetId="5" r:id="rId6"/>
+    <sheet name="基础数据" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="82">
   <si>
     <t>内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -307,6 +308,47 @@
   </si>
   <si>
     <t>提交接口功能清单再版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LayUI可行性研究</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>了解LayUI框架，尝试使用该框架搭建后台系统、常规报表，最后对使用该框架的可行性给出结论；
+官网：http://www.layui.com/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台菜单实现配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础功能参数实现配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将控制台菜单使用bo存储，实现可配置，菜单为三级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将服务号、微信支付模块参数实现后台配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信公众号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信支付</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -409,16 +451,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -434,6 +470,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -926,8 +968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F42"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -961,550 +1003,550 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="7">
         <v>43109</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="9"/>
+      <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7" t="s">
+      <c r="A3" s="15"/>
+      <c r="B3" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="7">
         <v>43109</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="9"/>
+      <c r="F3" s="8"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="10">
         <v>43109</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="11"/>
+      <c r="F4" s="9"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11" t="s">
+      <c r="A5" s="14"/>
+      <c r="B5" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="10">
         <v>43109</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="11"/>
+      <c r="F5" s="9"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="10">
         <v>43110</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="11"/>
+      <c r="F6" s="9"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11" t="s">
+      <c r="A7" s="14"/>
+      <c r="B7" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="10">
         <v>43110</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="11"/>
+      <c r="F7" s="9"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11" t="s">
+      <c r="A8" s="14"/>
+      <c r="B8" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="10">
         <v>43111</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="11"/>
+      <c r="F8" s="9"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="10"/>
-      <c r="B9" s="11" t="s">
+      <c r="A9" s="14"/>
+      <c r="B9" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="10">
         <v>43112</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="11"/>
+      <c r="F9" s="9"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="10">
         <v>43110</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="11"/>
+      <c r="F10" s="9"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="10"/>
-      <c r="B11" s="11" t="s">
+      <c r="A11" s="14"/>
+      <c r="B11" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="10">
         <v>43110</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="F11" s="11"/>
+      <c r="F11" s="9"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="10"/>
-      <c r="B12" s="11" t="s">
+      <c r="A12" s="14"/>
+      <c r="B12" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="10">
         <v>43110</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="9" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="10">
         <v>43111</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="F13" s="11"/>
+      <c r="F13" s="9"/>
     </row>
     <row r="14" spans="1:6" ht="26" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="10">
         <v>43115</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11" t="s">
+      <c r="E14" s="9"/>
+      <c r="F14" s="9" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11" t="s">
+      <c r="A15" s="14"/>
+      <c r="B15" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="10">
         <v>43119</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
     </row>
     <row r="16" spans="1:6" ht="28" x14ac:dyDescent="0.3">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="C16" s="14">
+      <c r="C16" s="12">
         <v>43116</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13" t="s">
+      <c r="E16" s="11"/>
+      <c r="F16" s="11" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="10"/>
-      <c r="B17" s="13" t="s">
+      <c r="A17" s="14"/>
+      <c r="B17" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="C17" s="14">
+      <c r="C17" s="12">
         <v>43117</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="10"/>
-      <c r="B18" s="13" t="s">
+      <c r="A18" s="14"/>
+      <c r="B18" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="C18" s="14">
+      <c r="C18" s="12">
         <v>43117</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="10"/>
-      <c r="B19" s="15" t="s">
+      <c r="A19" s="14"/>
+      <c r="B19" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="C19" s="14">
+      <c r="C19" s="12">
         <v>43117</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="10"/>
-      <c r="B20" s="15" t="s">
+      <c r="A20" s="14"/>
+      <c r="B20" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="C20" s="14">
+      <c r="C20" s="12">
         <v>43117</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="12">
+      <c r="C21" s="10">
         <v>43118</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="10"/>
-      <c r="B22" s="11" t="s">
+      <c r="A22" s="14"/>
+      <c r="B22" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="12">
+      <c r="C22" s="10">
         <v>43118</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="10"/>
-      <c r="B23" s="11" t="s">
+      <c r="A23" s="14"/>
+      <c r="B23" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="12">
+      <c r="C23" s="10">
         <v>43118</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="10"/>
-      <c r="B24" s="11" t="s">
+      <c r="A24" s="14"/>
+      <c r="B24" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="12">
+      <c r="C24" s="10">
         <v>43118</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="D24" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="10"/>
-      <c r="B25" s="11" t="s">
+      <c r="A25" s="14"/>
+      <c r="B25" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="12">
+      <c r="C25" s="10">
         <v>43118</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="D25" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="10"/>
-      <c r="B26" s="11" t="s">
+      <c r="A26" s="14"/>
+      <c r="B26" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="12">
+      <c r="C26" s="10">
         <v>43119</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="D26" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="10"/>
-      <c r="B27" s="11" t="s">
+      <c r="A27" s="14"/>
+      <c r="B27" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="12">
+      <c r="C27" s="10">
         <v>43119</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="D27" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="10"/>
-      <c r="B28" s="11" t="s">
+      <c r="A28" s="14"/>
+      <c r="B28" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="12">
+      <c r="C28" s="10">
         <v>43119</v>
       </c>
-      <c r="D28" s="11" t="s">
+      <c r="D28" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="13"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="13"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
+      <c r="A30" s="11"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="13"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
+      <c r="A31" s="11"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="13"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
+      <c r="A32" s="11"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="13"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
+      <c r="A33" s="11"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="13"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
+      <c r="A34" s="11"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="13"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
+      <c r="A35" s="11"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="13"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
+      <c r="A36" s="11"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="13"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
+      <c r="A37" s="11"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="13"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
+      <c r="A38" s="11"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="13"/>
-      <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
+      <c r="A39" s="11"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="13"/>
-      <c r="B40" s="13"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
+      <c r="A40" s="11"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="13"/>
-      <c r="B41" s="13"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="13"/>
+      <c r="A41" s="11"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="13"/>
-      <c r="B42" s="13"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
+      <c r="A42" s="11"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A21:A28"/>
     <mergeCell ref="A16:A20"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A6:A9"/>
     <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A21:A28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1526,6 +1568,312 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.9140625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="24.4140625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="11" style="5" customWidth="1"/>
+    <col min="5" max="5" width="11.25" style="5" customWidth="1"/>
+    <col min="6" max="6" width="46.83203125" style="5" customWidth="1"/>
+    <col min="7" max="16384" width="8.6640625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="12">
+        <v>43123</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="12">
+        <v>43125</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="12">
+        <v>43126</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" s="11"/>
+      <c r="C5" s="12">
+        <v>43133</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="11"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1537,7 +1885,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1552,7 +1900,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:B7"/>
   <sheetViews>

--- a/项目管理/VFlow项目执行计划-v1.0.xlsx
+++ b/项目管理/VFlow项目执行计划-v1.0.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="整体规划" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="83">
   <si>
     <t>内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -349,6 +349,10 @@
   </si>
   <si>
     <t>微信支付</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际完成时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -762,7 +766,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -778,17 +782,17 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.58203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" style="1"/>
-    <col min="5" max="5" width="33.4140625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.6640625" style="1"/>
+    <col min="2" max="2" width="13.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.625" style="1"/>
+    <col min="5" max="5" width="33.375" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -805,7 +809,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -819,7 +823,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -833,7 +837,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -847,7 +851,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -861,7 +865,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -875,7 +879,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -889,7 +893,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -903,7 +907,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
@@ -917,7 +921,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
@@ -931,7 +935,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
@@ -972,17 +976,17 @@
       <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.08203125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="10.9140625" style="5" customWidth="1"/>
-    <col min="4" max="5" width="8.6640625" style="5"/>
+    <col min="1" max="1" width="13.125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="21.625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="10.875" style="5" customWidth="1"/>
+    <col min="4" max="5" width="8.625" style="5"/>
     <col min="6" max="6" width="36" style="5" customWidth="1"/>
-    <col min="7" max="16384" width="8.6640625" style="5"/>
+    <col min="7" max="16384" width="8.625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>27</v>
       </c>
@@ -1002,7 +1006,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
         <v>34</v>
       </c>
@@ -1020,7 +1024,7 @@
       </c>
       <c r="F2" s="8"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="15"/>
       <c r="B3" s="6" t="s">
         <v>36</v>
@@ -1036,7 +1040,7 @@
       </c>
       <c r="F3" s="8"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>28</v>
       </c>
@@ -1054,7 +1058,7 @@
       </c>
       <c r="F4" s="9"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="14"/>
       <c r="B5" s="9" t="s">
         <v>30</v>
@@ -1070,7 +1074,7 @@
       </c>
       <c r="F5" s="9"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>31</v>
       </c>
@@ -1088,7 +1092,7 @@
       </c>
       <c r="F6" s="9"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="14"/>
       <c r="B7" s="9" t="s">
         <v>33</v>
@@ -1104,7 +1108,7 @@
       </c>
       <c r="F7" s="9"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="14"/>
       <c r="B8" s="9" t="s">
         <v>37</v>
@@ -1120,7 +1124,7 @@
       </c>
       <c r="F8" s="9"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="14"/>
       <c r="B9" s="9" t="s">
         <v>38</v>
@@ -1136,7 +1140,7 @@
       </c>
       <c r="F9" s="9"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
         <v>39</v>
       </c>
@@ -1154,7 +1158,7 @@
       </c>
       <c r="F10" s="9"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="14"/>
       <c r="B11" s="9" t="s">
         <v>41</v>
@@ -1170,7 +1174,7 @@
       </c>
       <c r="F11" s="9"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="14"/>
       <c r="B12" s="9" t="s">
         <v>42</v>
@@ -1188,7 +1192,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
         <v>43</v>
       </c>
@@ -1206,7 +1210,7 @@
       </c>
       <c r="F13" s="9"/>
     </row>
-    <row r="14" spans="1:6" ht="26" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
         <v>60</v>
       </c>
@@ -1224,7 +1228,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="14"/>
       <c r="B15" s="9" t="s">
         <v>71</v>
@@ -1238,7 +1242,7 @@
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
     </row>
-    <row r="16" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
         <v>61</v>
       </c>
@@ -1256,7 +1260,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="14"/>
       <c r="B17" s="11" t="s">
         <v>66</v>
@@ -1270,7 +1274,7 @@
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="14"/>
       <c r="B18" s="11" t="s">
         <v>68</v>
@@ -1284,7 +1288,7 @@
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="14"/>
       <c r="B19" s="13" t="s">
         <v>69</v>
@@ -1298,7 +1302,7 @@
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="14"/>
       <c r="B20" s="13" t="s">
         <v>70</v>
@@ -1312,7 +1316,7 @@
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
         <v>45</v>
       </c>
@@ -1328,7 +1332,7 @@
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="14"/>
       <c r="B22" s="9" t="s">
         <v>47</v>
@@ -1342,7 +1346,7 @@
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="14"/>
       <c r="B23" s="9" t="s">
         <v>48</v>
@@ -1356,7 +1360,7 @@
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="14"/>
       <c r="B24" s="9" t="s">
         <v>49</v>
@@ -1370,7 +1374,7 @@
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="14"/>
       <c r="B25" s="9" t="s">
         <v>50</v>
@@ -1384,7 +1388,7 @@
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="14"/>
       <c r="B26" s="9" t="s">
         <v>51</v>
@@ -1398,7 +1402,7 @@
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="14"/>
       <c r="B27" s="9" t="s">
         <v>52</v>
@@ -1412,7 +1416,7 @@
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="14"/>
       <c r="B28" s="9" t="s">
         <v>53</v>
@@ -1426,7 +1430,7 @@
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -1434,7 +1438,7 @@
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -1442,7 +1446,7 @@
       <c r="E30" s="11"/>
       <c r="F30" s="11"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -1450,7 +1454,7 @@
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -1458,7 +1462,7 @@
       <c r="E32" s="11"/>
       <c r="F32" s="11"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="11"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -1466,7 +1470,7 @@
       <c r="E33" s="11"/>
       <c r="F33" s="11"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="11"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -1474,7 +1478,7 @@
       <c r="E34" s="11"/>
       <c r="F34" s="11"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="11"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
@@ -1482,7 +1486,7 @@
       <c r="E35" s="11"/>
       <c r="F35" s="11"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="11"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
@@ -1490,7 +1494,7 @@
       <c r="E36" s="11"/>
       <c r="F36" s="11"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="11"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
@@ -1498,7 +1502,7 @@
       <c r="E37" s="11"/>
       <c r="F37" s="11"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="11"/>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
@@ -1506,7 +1510,7 @@
       <c r="E38" s="11"/>
       <c r="F38" s="11"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="11"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
@@ -1514,7 +1518,7 @@
       <c r="E39" s="11"/>
       <c r="F39" s="11"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="11"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -1522,7 +1526,7 @@
       <c r="E40" s="11"/>
       <c r="F40" s="11"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="11"/>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
@@ -1530,7 +1534,7 @@
       <c r="E41" s="11"/>
       <c r="F41" s="11"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="11"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -1568,24 +1572,24 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.9140625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="24.4140625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="11" style="5" customWidth="1"/>
-    <col min="5" max="5" width="11.25" style="5" customWidth="1"/>
-    <col min="6" max="6" width="46.83203125" style="5" customWidth="1"/>
-    <col min="7" max="16384" width="8.6640625" style="5"/>
+    <col min="1" max="1" width="9.875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="24.375" style="5" customWidth="1"/>
+    <col min="3" max="4" width="14.625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="11" style="5" customWidth="1"/>
+    <col min="6" max="6" width="11.25" style="5" customWidth="1"/>
+    <col min="7" max="7" width="46.875" style="5" customWidth="1"/>
+    <col min="8" max="16384" width="8.625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>27</v>
       </c>
@@ -1596,16 +1600,19 @@
         <v>1</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>60</v>
       </c>
@@ -1615,15 +1622,16 @@
       <c r="C2" s="12">
         <v>43123</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="12"/>
+      <c r="E2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="11"/>
+      <c r="G2" s="11" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
         <v>75</v>
       </c>
@@ -1633,15 +1641,16 @@
       <c r="C3" s="12">
         <v>43125</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="12"/>
+      <c r="E3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="11"/>
+      <c r="G3" s="11" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
         <v>76</v>
       </c>
@@ -1651,15 +1660,16 @@
       <c r="C4" s="12">
         <v>43126</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="12"/>
+      <c r="E4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="11"/>
+      <c r="G4" s="11" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
         <v>80</v>
       </c>
@@ -1667,11 +1677,12 @@
       <c r="C5" s="12">
         <v>43133</v>
       </c>
-      <c r="D5" s="11"/>
+      <c r="D5" s="12"/>
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5" s="11"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
         <v>81</v>
       </c>
@@ -1680,190 +1691,214 @@
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6" s="11"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7" s="11"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G8" s="11"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G9" s="11"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G10" s="11"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="11"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G11" s="11"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="11"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G12" s="11"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="11"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G13" s="11"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="11"/>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G14" s="11"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="11"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G15" s="11"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="11"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G16" s="11"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G17" s="11"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="11"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G18" s="11"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="11"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G19" s="11"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="11"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G20" s="11"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G21" s="11"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G22" s="11"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G23" s="11"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G24" s="11"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
       <c r="F25" s="11"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G25" s="11"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
       <c r="E26" s="11"/>
       <c r="F26" s="11"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G26" s="11"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
       <c r="E27" s="11"/>
       <c r="F27" s="11"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G27" s="11"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G28" s="11"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1878,7 +1913,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1893,7 +1928,7 @@
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1908,29 +1943,29 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>57</v>
       </c>
